--- a/images/Statistics.xlsx
+++ b/images/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentmdh-my.sharepoint.com/personal/dsp14001_student_mdh_se/Documents/-=MDH=--KajviLP/CEL406 - Sensorteknik/Git/polyethylene_sensor/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="8_{5AE53545-4857-4534-95A2-F3600ED7A3A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3410B995-0B78-47B8-B02C-10D089FF59A0}"/>
+  <xr:revisionPtr revIDLastSave="340" documentId="8_{5AE53545-4857-4534-95A2-F3600ED7A3A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{25B62C14-CB6D-45A8-9796-E9241A8492E6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01CC09AA-9B78-4861-817F-3BC8A08CF39D}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>släpp</t>
   </si>
   <si>
-    <t>Medel</t>
-  </si>
-  <si>
     <t>STD</t>
   </si>
   <si>
@@ -55,13 +52,16 @@
     <t>Släpp</t>
   </si>
   <si>
-    <t>Mean+std</t>
+    <t>Oisolerad</t>
   </si>
   <si>
-    <t>Mean-std</t>
+    <t>MEAN</t>
   </si>
   <si>
-    <t>Oisolerad</t>
+    <t>MEAN + 2 x STD</t>
+  </si>
+  <si>
+    <t>MEAN - 2 x  STD</t>
   </si>
 </sst>
 </file>
@@ -270,7 +270,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Medel</c:v>
+                  <c:v>MEAN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -287,6 +287,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$M$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$M$6:$W$6</c:f>
@@ -362,6 +404,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$M$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$M$7:$W$7</c:f>
@@ -420,7 +504,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean+std</c:v>
+                  <c:v>MEAN + 2 x STD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -437,6 +521,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$M$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$M$8:$W$8</c:f>
@@ -444,37 +570,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>169.04063735145331</c:v>
+                  <c:v>175.97601154501191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>409.29484315043942</c:v>
+                  <c:v>471.4844231429841</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>420.69918274905245</c:v>
+                  <c:v>474.55626023494699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>441.13328490850591</c:v>
+                  <c:v>498.84551718543287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>442.03312877422889</c:v>
+                  <c:v>499.06625754845783</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>450.82797085972436</c:v>
+                  <c:v>504.8138364562908</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104.61904409653616</c:v>
+                  <c:v>108.18545661412496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140.17900064032364</c:v>
+                  <c:v>150.46326443854201</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>161.79083578726659</c:v>
+                  <c:v>174.89746104821742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>169.59319067815474</c:v>
+                  <c:v>180.5021708299937</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>174.7182531580755</c:v>
+                  <c:v>184.436506316151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,7 +621,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean-std</c:v>
+                  <c:v>MEAN - 2 x  STD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -512,6 +638,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$M$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$M$9:$W$9</c:f>
@@ -519,37 +687,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>155.16988896433617</c:v>
+                  <c:v>148.23451477077757</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284.91568316535006</c:v>
+                  <c:v>222.72610317280538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>312.98502777726338</c:v>
+                  <c:v>259.12795029136885</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>325.708820354652</c:v>
+                  <c:v>267.99658807772505</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>327.96687122577111</c:v>
+                  <c:v>270.93374245154217</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>342.85623966659148</c:v>
+                  <c:v>288.87037407002504</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.486219061358582</c:v>
+                  <c:v>93.919806543769781</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>119.61047304388688</c:v>
+                  <c:v>109.32620924566851</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>135.57758526536497</c:v>
+                  <c:v>122.47096000441414</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>147.77523037447682</c:v>
+                  <c:v>136.86625022263786</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>155.2817468419245</c:v>
+                  <c:v>145.563493683849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -580,6 +748,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -846,7 +1015,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Medel</c:v>
+                  <c:v>MEAN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -863,6 +1032,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$M$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$M$25:$W$25</c:f>
@@ -938,6 +1149,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$M$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$M$26:$W$26</c:f>
@@ -996,7 +1249,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean+std</c:v>
+                  <c:v>MEAN + 2 x STD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1013,6 +1266,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$M$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$M$27:$W$27</c:f>
@@ -1020,37 +1315,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>438.03557002625053</c:v>
+                  <c:v>469.01231652308928</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>609.74605108381377</c:v>
+                  <c:v>660.374455108804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>630.00154905176885</c:v>
+                  <c:v>682.35603928000842</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>641.96682713133328</c:v>
+                  <c:v>691.87483073325473</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>644.86934943537096</c:v>
+                  <c:v>695.62105181191828</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>653.36391555122134</c:v>
+                  <c:v>705.55136051420754</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>390.76873383838586</c:v>
+                  <c:v>415.36099708853641</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>401.34594116305163</c:v>
+                  <c:v>422.10364703198559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>419.346640225844</c:v>
+                  <c:v>446.04622162815861</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>428.62305380713457</c:v>
+                  <c:v>454.3049311436809</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>436.22022120425379</c:v>
+                  <c:v>462.44044240850758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,7 +1366,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean-std</c:v>
+                  <c:v>MEAN - 2 x  STD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1088,6 +1383,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$M$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$M$28:$W$28</c:f>
@@ -1095,37 +1432,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>376.08207703257301</c:v>
+                  <c:v>345.10533053573425</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>508.4892430338333</c:v>
+                  <c:v>457.86083900884307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>525.29256859528994</c:v>
+                  <c:v>472.93807836705042</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>542.15081992749015</c:v>
+                  <c:v>492.24281632556864</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>543.36594468227611</c:v>
+                  <c:v>492.61424230572874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>548.98902562524916</c:v>
+                  <c:v>496.80158066226301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>341.58420733808475</c:v>
+                  <c:v>316.9919440879342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>359.83052942518361</c:v>
+                  <c:v>339.07282355624966</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>365.94747742121478</c:v>
+                  <c:v>339.24789601890018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>377.2592991340419</c:v>
+                  <c:v>351.57742179749556</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>383.77977879574621</c:v>
+                  <c:v>357.55955759149242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,6 +1493,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1220,6 +1613,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sv-SE" baseline="0"/>
+                  <a:t> (mV)</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1294,6 +1747,314 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$4:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95CC-42FC-920C-2F5D4B98A03A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="423465608"/>
+        <c:axId val="423465936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="423465608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423465936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="423465936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423465608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1418,6 +2179,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2450,20 +3251,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2490,16 +3807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2519,6 +3836,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10B9AD2-B8A1-40B5-B269-71A4C59EA301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2826,8 +4179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91C3B6A-AF92-49BD-B9D1-9F0178AA7054}">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25:W28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2884,10 +4237,10 @@
         <v>20</v>
       </c>
       <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s">
         <v>5</v>
-      </c>
-      <c r="R3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -3028,7 +4381,7 @@
         <v>175</v>
       </c>
       <c r="L6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M6">
         <f>AVERAGE(A4:A22)</f>
@@ -3110,7 +4463,7 @@
         <v>175</v>
       </c>
       <c r="L7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <f>_xlfn.STDEV.S(A4:A22)</f>
@@ -3192,51 +4545,51 @@
         <v>170</v>
       </c>
       <c r="L8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <f>M6+M7</f>
-        <v>169.04063735145331</v>
+        <f>M6+2*M7</f>
+        <v>175.97601154501191</v>
       </c>
       <c r="N8">
-        <f>N6+N7</f>
-        <v>409.29484315043942</v>
+        <f t="shared" ref="N8:W8" si="2">N6+2*N7</f>
+        <v>471.4844231429841</v>
       </c>
       <c r="O8">
-        <f>O6+O7</f>
-        <v>420.69918274905245</v>
+        <f t="shared" si="2"/>
+        <v>474.55626023494699</v>
       </c>
       <c r="P8">
-        <f>P6+P7</f>
-        <v>441.13328490850591</v>
+        <f t="shared" si="2"/>
+        <v>498.84551718543287</v>
       </c>
       <c r="Q8">
-        <f>Q6+Q7</f>
-        <v>442.03312877422889</v>
+        <f t="shared" si="2"/>
+        <v>499.06625754845783</v>
       </c>
       <c r="R8">
-        <f>R6+R7</f>
-        <v>450.82797085972436</v>
+        <f t="shared" si="2"/>
+        <v>504.8138364562908</v>
       </c>
       <c r="S8">
-        <f>S6+S7</f>
-        <v>104.61904409653616</v>
+        <f t="shared" si="2"/>
+        <v>108.18545661412496</v>
       </c>
       <c r="T8">
-        <f>T6+T7</f>
-        <v>140.17900064032364</v>
+        <f t="shared" si="2"/>
+        <v>150.46326443854201</v>
       </c>
       <c r="U8">
-        <f>U6+U7</f>
-        <v>161.79083578726659</v>
+        <f t="shared" si="2"/>
+        <v>174.89746104821742</v>
       </c>
       <c r="V8">
-        <f>V6+V7</f>
-        <v>169.59319067815474</v>
+        <f t="shared" si="2"/>
+        <v>180.5021708299937</v>
       </c>
       <c r="W8">
-        <f>W6+W7</f>
-        <v>174.7182531580755</v>
+        <f t="shared" si="2"/>
+        <v>184.436506316151</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -3274,51 +4627,51 @@
         <v>175</v>
       </c>
       <c r="L9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <f>M6-M7</f>
-        <v>155.16988896433617</v>
+        <f>M6-2*M7</f>
+        <v>148.23451477077757</v>
       </c>
       <c r="N9">
-        <f>N6-N7</f>
-        <v>284.91568316535006</v>
+        <f t="shared" ref="N9:W9" si="3">N6-2*N7</f>
+        <v>222.72610317280538</v>
       </c>
       <c r="O9">
-        <f>O6-O7</f>
-        <v>312.98502777726338</v>
+        <f t="shared" si="3"/>
+        <v>259.12795029136885</v>
       </c>
       <c r="P9">
-        <f>P6-P7</f>
-        <v>325.708820354652</v>
+        <f t="shared" si="3"/>
+        <v>267.99658807772505</v>
       </c>
       <c r="Q9">
-        <f>Q6-Q7</f>
-        <v>327.96687122577111</v>
+        <f t="shared" si="3"/>
+        <v>270.93374245154217</v>
       </c>
       <c r="R9">
-        <f>R6-R7</f>
-        <v>342.85623966659148</v>
+        <f t="shared" si="3"/>
+        <v>288.87037407002504</v>
       </c>
       <c r="S9">
-        <f>S6-S7</f>
-        <v>97.486219061358582</v>
+        <f t="shared" si="3"/>
+        <v>93.919806543769781</v>
       </c>
       <c r="T9">
-        <f>T6-T7</f>
-        <v>119.61047304388688</v>
+        <f t="shared" si="3"/>
+        <v>109.32620924566851</v>
       </c>
       <c r="U9">
-        <f>U6-U7</f>
-        <v>135.57758526536497</v>
+        <f t="shared" si="3"/>
+        <v>122.47096000441414</v>
       </c>
       <c r="V9">
-        <f>V6-V7</f>
-        <v>147.77523037447682</v>
+        <f t="shared" si="3"/>
+        <v>136.86625022263786</v>
       </c>
       <c r="W9">
-        <f>W6-W7</f>
-        <v>155.2817468419245</v>
+        <f t="shared" si="3"/>
+        <v>145.563493683849</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -3778,7 +5131,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
@@ -3816,50 +5169,50 @@
         <v>400</v>
       </c>
       <c r="L25" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M25">
         <f>AVERAGE(A23:A41)</f>
         <v>407.05882352941177</v>
       </c>
       <c r="N25">
-        <f t="shared" ref="N25:W25" si="2">AVERAGE(B23:B41)</f>
+        <f t="shared" ref="N25:W25" si="4">AVERAGE(B23:B41)</f>
         <v>559.11764705882354</v>
       </c>
       <c r="O25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>577.64705882352939</v>
       </c>
       <c r="P25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>592.05882352941171</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>594.11764705882354</v>
       </c>
       <c r="R25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>601.17647058823525</v>
       </c>
       <c r="S25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>366.1764705882353</v>
       </c>
       <c r="T25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>380.58823529411762</v>
       </c>
       <c r="U25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>392.64705882352939</v>
       </c>
       <c r="V25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>402.94117647058823</v>
       </c>
       <c r="W25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>410</v>
       </c>
     </row>
@@ -3898,50 +5251,50 @@
         <v>400</v>
       </c>
       <c r="L26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26">
         <f>_xlfn.STDEV.S(A23:A41)</f>
         <v>30.97674649683875</v>
       </c>
       <c r="N26">
-        <f t="shared" ref="N26:W26" si="3">_xlfn.STDEV.S(B23:B41)</f>
+        <f t="shared" ref="N26:W26" si="5">_xlfn.STDEV.S(B23:B41)</f>
         <v>50.628404024990232</v>
       </c>
       <c r="O26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>52.354490228239484</v>
       </c>
       <c r="P26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>49.908003601921529</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50.751702376547399</v>
       </c>
       <c r="R26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>52.18744496298612</v>
       </c>
       <c r="S26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24.592263250150562</v>
       </c>
       <c r="T26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20.757705868933986</v>
       </c>
       <c r="U26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26.6995814023146</v>
       </c>
       <c r="V26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25.681877336546325</v>
       </c>
       <c r="W26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26.220221204253789</v>
       </c>
     </row>
@@ -3980,51 +5333,51 @@
         <v>440</v>
       </c>
       <c r="L27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M27">
-        <f>M25+M26</f>
-        <v>438.03557002625053</v>
+        <f>M25+2*M26</f>
+        <v>469.01231652308928</v>
       </c>
       <c r="N27">
-        <f t="shared" ref="N27:W27" si="4">N25+N26</f>
-        <v>609.74605108381377</v>
+        <f t="shared" ref="N27" si="6">N25+2*N26</f>
+        <v>660.374455108804</v>
       </c>
       <c r="O27">
-        <f t="shared" si="4"/>
-        <v>630.00154905176885</v>
+        <f t="shared" ref="O27" si="7">O25+2*O26</f>
+        <v>682.35603928000842</v>
       </c>
       <c r="P27">
-        <f t="shared" si="4"/>
-        <v>641.96682713133328</v>
+        <f t="shared" ref="P27" si="8">P25+2*P26</f>
+        <v>691.87483073325473</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="4"/>
-        <v>644.86934943537096</v>
+        <f t="shared" ref="Q27" si="9">Q25+2*Q26</f>
+        <v>695.62105181191828</v>
       </c>
       <c r="R27">
-        <f t="shared" si="4"/>
-        <v>653.36391555122134</v>
+        <f t="shared" ref="R27" si="10">R25+2*R26</f>
+        <v>705.55136051420754</v>
       </c>
       <c r="S27">
-        <f t="shared" si="4"/>
-        <v>390.76873383838586</v>
+        <f t="shared" ref="S27" si="11">S25+2*S26</f>
+        <v>415.36099708853641</v>
       </c>
       <c r="T27">
-        <f t="shared" si="4"/>
-        <v>401.34594116305163</v>
+        <f t="shared" ref="T27" si="12">T25+2*T26</f>
+        <v>422.10364703198559</v>
       </c>
       <c r="U27">
-        <f t="shared" si="4"/>
-        <v>419.346640225844</v>
+        <f t="shared" ref="U27" si="13">U25+2*U26</f>
+        <v>446.04622162815861</v>
       </c>
       <c r="V27">
-        <f t="shared" si="4"/>
-        <v>428.62305380713457</v>
+        <f t="shared" ref="V27" si="14">V25+2*V26</f>
+        <v>454.3049311436809</v>
       </c>
       <c r="W27">
-        <f t="shared" si="4"/>
-        <v>436.22022120425379</v>
+        <f t="shared" ref="W27" si="15">W25+2*W26</f>
+        <v>462.44044240850758</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -4062,51 +5415,51 @@
         <v>400</v>
       </c>
       <c r="L28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M28">
-        <f>M25-M26</f>
-        <v>376.08207703257301</v>
+        <f>M25-2*M26</f>
+        <v>345.10533053573425</v>
       </c>
       <c r="N28">
-        <f t="shared" ref="N28:W28" si="5">N25-N26</f>
-        <v>508.4892430338333</v>
+        <f t="shared" ref="N28:W28" si="16">N25-2*N26</f>
+        <v>457.86083900884307</v>
       </c>
       <c r="O28">
-        <f t="shared" si="5"/>
-        <v>525.29256859528994</v>
+        <f t="shared" si="16"/>
+        <v>472.93807836705042</v>
       </c>
       <c r="P28">
-        <f t="shared" si="5"/>
-        <v>542.15081992749015</v>
+        <f t="shared" si="16"/>
+        <v>492.24281632556864</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="5"/>
-        <v>543.36594468227611</v>
+        <f t="shared" si="16"/>
+        <v>492.61424230572874</v>
       </c>
       <c r="R28">
-        <f t="shared" si="5"/>
-        <v>548.98902562524916</v>
+        <f t="shared" si="16"/>
+        <v>496.80158066226301</v>
       </c>
       <c r="S28">
-        <f t="shared" si="5"/>
-        <v>341.58420733808475</v>
+        <f t="shared" si="16"/>
+        <v>316.9919440879342</v>
       </c>
       <c r="T28">
-        <f t="shared" si="5"/>
-        <v>359.83052942518361</v>
+        <f t="shared" si="16"/>
+        <v>339.07282355624966</v>
       </c>
       <c r="U28">
-        <f t="shared" si="5"/>
-        <v>365.94747742121478</v>
+        <f t="shared" si="16"/>
+        <v>339.24789601890018</v>
       </c>
       <c r="V28">
-        <f t="shared" si="5"/>
-        <v>377.2592991340419</v>
+        <f t="shared" si="16"/>
+        <v>351.57742179749556</v>
       </c>
       <c r="W28">
-        <f t="shared" si="5"/>
-        <v>383.77977879574621</v>
+        <f t="shared" si="16"/>
+        <v>357.55955759149242</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
